--- a/Data/ID3DataShort.xlsx
+++ b/Data/ID3DataShort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cardinalnewmanac-my.sharepoint.com/personal/t0078915_cardinalnewman_ac_uk/Documents/Computer Science/NEA/Game1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFAED039-BAC4-420F-9B89-422CE41F0870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{BFAED039-BAC4-420F-9B89-422CE41F0870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D4542AA-02C8-44FB-AB5C-C7E9C2AE363D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2C51C803-ED2E-42E8-9E3F-EE634AB0A697}"/>
   </bookViews>
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E771EC8C-B532-41C3-A987-9AC6B23AAA30}">
   <dimension ref="A1:M202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="H208" sqref="H208"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
